--- a/config_3.2/act_ty_phb_config.xlsx
+++ b/config_3.2/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>line|</t>
   </si>
@@ -93,54 +93,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gdn_004_jzbd_rank</t>
-  </si>
-  <si>
-    <r>
-      <t>act_003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_dlphb</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_no_cjj_gej_exchange</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ycs_005_jybb_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prop_fish_drop_act_2</t>
+    <t>act_006_dlphb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nyx_006_yxbd_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_004_dlphb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_005_dlphb</t>
+    <t>nsj_007_mgbd_rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -216,13 +177,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -535,7 +508,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -553,7 +526,7 @@
     <col min="11" max="11" width="58.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,108 +551,72 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1614643200</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1615219199</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1612828800</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1613404799</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1613433600</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1614009599</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1614038400</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1614614399</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="I9" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
